--- a/StructureDefinition-ext-R5-Location.contact.xlsx
+++ b/StructureDefinition-ext-R5-Location.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Location.contact` 0..* `ExtendedContactDetail`
 Following are the generation technical comments:
-Element `Location.contact` is mapped to FHIR R4 structure `Location`, but has no target element specified.</t>
+Element `Location.contact` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Location</t>
   </si>
   <si>
     <t>ID</t>

--- a/StructureDefinition-ext-R5-Location.contact.xlsx
+++ b/StructureDefinition-ext-R5-Location.contact.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `Location.contact` 0..* `ExtendedContactDetail`
 Following are the generation technical comments:
-Element `Location.contact` is will have a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
+Element `Location.contact` has a context of Location based on following the parent source element upwards and mapping to `Location`.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/StructureDefinition-ext-R5-Location.contact.xlsx
+++ b/StructureDefinition-ext-R5-Location.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="194">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -454,15 +454,6 @@
 </t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The purpose for which an extended contact detail should be used.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-contactentity-type-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -589,7 +580,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
 </t>
   </si>
   <si>
@@ -978,8 +969,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.28125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2424,13 +2415,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2468,13 +2459,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2499,16 +2490,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2577,7 +2568,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2680,7 +2671,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2785,7 +2776,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2828,7 +2819,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2890,7 +2881,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2916,16 +2907,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2995,13 +2986,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3026,14 +3017,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3102,7 +3093,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3205,7 +3196,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3310,7 +3301,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3353,7 +3344,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3415,7 +3406,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3441,13 +3432,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3518,13 +3509,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3549,16 +3540,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3627,7 +3618,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3730,7 +3721,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3835,7 +3826,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3878,7 +3869,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3940,7 +3931,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3966,16 +3957,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4045,13 +4036,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4076,14 +4067,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4152,7 +4143,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4255,7 +4246,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4360,7 +4351,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4403,7 +4394,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4465,7 +4456,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4491,13 +4482,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4568,13 +4559,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4599,16 +4590,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4677,7 +4668,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4780,7 +4771,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4885,7 +4876,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4928,7 +4919,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4990,7 +4981,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5016,16 +5007,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5226,7 +5217,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>123</v>

--- a/StructureDefinition-ext-R5-Location.contact.xlsx
+++ b/StructureDefinition-ext-R5-Location.contact.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -454,6 +454,15 @@
 </t>
   </si>
   <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The purpose for which an extended contact detail should be used.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -580,7 +589,7 @@
     <t>Extension.extension:organization.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -969,8 +978,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2415,13 +2424,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2459,13 +2468,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2490,16 +2499,16 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2568,7 +2577,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2671,7 +2680,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2776,7 +2785,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2819,7 +2828,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2881,7 +2890,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2907,16 +2916,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2986,13 +2995,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3017,14 +3026,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3093,7 +3102,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3196,7 +3205,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3301,7 +3310,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3344,7 +3353,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3406,7 +3415,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3432,13 +3441,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3509,13 +3518,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3540,16 +3549,16 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3627,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3721,7 +3730,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3826,7 +3835,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3869,7 +3878,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3931,7 +3940,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3957,16 +3966,16 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4036,13 +4045,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4067,14 +4076,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4143,7 +4152,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>105</v>
@@ -4246,7 +4255,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>107</v>
@@ -4351,7 +4360,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>113</v>
@@ -4394,7 +4403,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4456,7 +4465,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>122</v>
@@ -4482,13 +4491,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4559,13 +4568,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>93</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4590,16 +4599,16 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -4668,7 +4677,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>105</v>
@@ -4771,7 +4780,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>107</v>
@@ -4876,7 +4885,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>113</v>
@@ -4919,7 +4928,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -4981,7 +4990,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>122</v>
@@ -5007,16 +5016,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -5217,7 +5226,7 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>123</v>
